--- a/doc/自动化平台开发计划.xlsx
+++ b/doc/自动化平台开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>功能模块</t>
   </si>
@@ -190,6 +190,18 @@
     <t>测试结果展示</t>
   </si>
   <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>ui case 文件服务器</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>filezilla</t>
+  </si>
+  <si>
     <t>roborframework</t>
   </si>
   <si>
@@ -361,15 +373,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,9 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,14 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -421,16 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,9 +439,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +469,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -482,15 +492,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,7 +502,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,90 +553,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -635,98 +755,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -897,252 +927,315 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.5"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.5"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.5"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.5"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.5"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1157,45 +1250,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,39 +1264,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1251,10 +1272,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1263,137 +1284,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,9 +1475,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1469,88 +1487,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1904,12 +1931,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2019,7 +2046,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="20"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="13"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19" t="s">
@@ -2033,7 +2060,7 @@
     <row r="9" s="6" customFormat="1" spans="1:6">
       <c r="A9" s="17"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2046,28 +2073,27 @@
     <row r="10" s="6" customFormat="1" spans="1:6">
       <c r="A10" s="17"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6"/>
       <c r="F10" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:4">
-      <c r="A11" s="20"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" spans="1:6">
       <c r="A12" s="17"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2078,9 +2104,9 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="20"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -2088,9 +2114,9 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="20"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -2098,9 +2124,9 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="20"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -2108,112 +2134,112 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" s="7" customFormat="1" spans="1:3">
-      <c r="A18" s="24"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="1" spans="1:6">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" s="9" customFormat="1" spans="1:6">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="22"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="20"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="20"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="20"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="39" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" s="7" customFormat="1" spans="1:5">
-      <c r="A25" s="24"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" s="10" customFormat="1" spans="1:4">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="39" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -2221,9 +2247,9 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="22" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -2231,85 +2257,116 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="22" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:3">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" s="6" customFormat="1" ht="27" spans="1:6">
-      <c r="A31" s="49" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:5">
+      <c r="A31" s="17"/>
+      <c r="B31" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="16" t="s">
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:3">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="44"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:3">
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="44"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" s="6" customFormat="1" ht="27" spans="1:6">
+      <c r="A35" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" spans="1:6">
-      <c r="A32" s="50"/>
-      <c r="C32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="51"/>
-      <c r="C33" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="10"/>
-      <c r="C34" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="36" s="6" customFormat="1" spans="1:6">
-      <c r="A36" s="49" t="s">
-        <v>54</v>
-      </c>
+      <c r="A36" s="50"/>
       <c r="C36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F36" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="52"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="53"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="51"/>
+      <c r="C37" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="52"/>
+      <c r="C38" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" s="6" customFormat="1" spans="1:6">
+      <c r="A40" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="54"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="A31:A34"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="A35:A38"/>
     <mergeCell ref="B2:B18"/>
     <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C8"/>
   </mergeCells>
@@ -2340,13 +2397,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:5">
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -2354,101 +2411,101 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="3:4">
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="2:5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1" spans="2:4">
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2479,18 +2536,18 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2504,28 +2561,28 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/doc/自动化平台开发计划.xlsx
+++ b/doc/自动化平台开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="25200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="auto" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>功能模块</t>
   </si>
@@ -151,6 +151,9 @@
     <t>堡垒机功能</t>
   </si>
   <si>
+    <t>库已完成，待对接</t>
+  </si>
+  <si>
     <t>slave</t>
   </si>
   <si>
@@ -196,10 +199,10 @@
     <t>ui case 文件服务器</t>
   </si>
   <si>
-    <t>ftp</t>
-  </si>
-  <si>
-    <t>filezilla</t>
+    <t>ftp+NGINX</t>
+  </si>
+  <si>
+    <t>filezilla,ftp上传下载，nginx接口提供查看功能</t>
   </si>
   <si>
     <t>roborframework</t>
@@ -372,15 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,21 +399,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -425,7 +407,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,9 +422,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,7 +460,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,32 +504,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,31 +562,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,163 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,11 +1164,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,17 +1188,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,31 +1228,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,6 +1252,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1272,10 +1269,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1284,137 +1281,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,15 +1538,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1559,22 +1550,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1934,9 +1919,9 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1946,7 +1931,8 @@
     <col min="3" max="3" width="38" style="11" customWidth="1"/>
     <col min="4" max="4" width="43.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="11"/>
+    <col min="6" max="6" width="16.625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="3:6">
@@ -2154,7 +2140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" spans="1:6">
+    <row r="19" s="8" customFormat="1" ht="32" customHeight="1" spans="1:6">
       <c r="A19" s="17"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25" t="s">
@@ -2163,16 +2149,16 @@
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" s="9" customFormat="1" spans="1:6">
       <c r="A20" s="17"/>
       <c r="B20" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -2184,7 +2170,7 @@
       <c r="A21" s="17"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="21"/>
@@ -2196,7 +2182,7 @@
       <c r="A22" s="17"/>
       <c r="B22" s="31"/>
       <c r="C22" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="21"/>
@@ -2208,7 +2194,7 @@
       <c r="A23" s="17"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="21"/>
@@ -2220,7 +2206,7 @@
       <c r="A24" s="17"/>
       <c r="B24" s="31"/>
       <c r="C24" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="21"/>
@@ -2229,7 +2215,7 @@
       <c r="A25" s="17"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="23"/>
@@ -2237,30 +2223,30 @@
     <row r="26" s="10" customFormat="1" spans="1:4">
       <c r="A26" s="17"/>
       <c r="B26" s="38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="17"/>
       <c r="B27" s="40"/>
       <c r="C27" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="17"/>
       <c r="B28" s="40"/>
       <c r="C28" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2270,94 +2256,94 @@
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:3">
       <c r="A30" s="17"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="21"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:5">
+    <row r="31" ht="29" customHeight="1" spans="1:5">
       <c r="A31" s="17"/>
-      <c r="B31" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="44" t="s">
+      <c r="B31" s="42" t="s">
         <v>48</v>
       </c>
+      <c r="C31" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="D31" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="44"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="44"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="10"/>
     </row>
     <row r="35" s="6" customFormat="1" ht="27" spans="1:6">
-      <c r="A35" s="49" t="s">
-        <v>51</v>
+      <c r="A35" s="46" t="s">
+        <v>52</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" s="6" customFormat="1" spans="1:6">
-      <c r="A36" s="50"/>
+      <c r="A36" s="47"/>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="47"/>
       <c r="C37" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="52"/>
+      <c r="A38" s="48"/>
       <c r="C38" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" s="6" customFormat="1" spans="1:6">
-      <c r="A40" s="53" t="s">
-        <v>58</v>
+      <c r="A40" s="49" t="s">
+        <v>59</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="54"/>
+      <c r="A41" s="50"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="55"/>
+      <c r="A42" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2397,13 +2383,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:5">
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -2411,101 +2397,101 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="27" spans="3:4">
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1" spans="2:4">
       <c r="B11" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2536,18 +2522,18 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2561,28 +2547,28 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/doc/自动化平台开发计划.xlsx
+++ b/doc/自动化平台开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="auto" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>功能模块</t>
   </si>
@@ -82,13 +82,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>remote库/web服务/</t>
     </r>
     <r>
@@ -115,6 +108,9 @@
     </r>
   </si>
   <si>
+    <t>选用redis</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
@@ -172,7 +168,7 @@
     <t>slave 心跳+消费任务</t>
   </si>
   <si>
-    <t>api接口-flask</t>
+    <t>slave上报系统信息</t>
   </si>
   <si>
     <t>前台</t>
@@ -353,10 +349,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -375,9 +371,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,6 +401,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -405,9 +432,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,25 +455,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,7 +480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,37 +494,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -512,6 +507,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -535,7 +531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +546,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -568,49 +570,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,133 +738,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,19 +1040,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color theme="0" tint="-0.5"/>
       </right>
       <top style="thin">
@@ -1071,6 +1060,19 @@
       <top style="thin">
         <color theme="0" tint="-0.5"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1161,6 +1163,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1179,30 +1205,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1214,30 +1216,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,6 +1234,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1269,10 +1271,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1281,137 +1283,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1436,10 +1438,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1454,112 +1459,133 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,23 +1942,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="16.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="38" style="11" customWidth="1"/>
-    <col min="4" max="4" width="43.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="16.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="38" style="12" customWidth="1"/>
+    <col min="4" max="4" width="43.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="3:6">
@@ -1950,409 +1976,419 @@
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:6">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:6">
-      <c r="A4" s="17"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" spans="1:6">
-      <c r="A5" s="17"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:6">
-      <c r="A7" s="17"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:6">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" spans="1:6">
-      <c r="A10" s="17"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="21" t="s">
+    <row r="11" ht="27" spans="1:5">
+      <c r="A11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" s="6" customFormat="1" spans="1:6">
-      <c r="A12" s="17"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="20" t="s">
-        <v>22</v>
+      <c r="A12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="17"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="22" t="s">
         <v>25</v>
       </c>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="24" t="s">
         <v>27</v>
       </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="24" t="s">
         <v>29</v>
       </c>
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="21" t="s">
-        <v>30</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="22" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="21" t="s">
-        <v>31</v>
+      <c r="A17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" s="7" customFormat="1" spans="1:3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="23" t="s">
-        <v>32</v>
+      <c r="A18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="1" ht="32" customHeight="1" spans="1:6">
-      <c r="A19" s="17"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="16" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
         <v>34</v>
       </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" s="9" customFormat="1" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="16" t="s">
+      <c r="C20" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="17"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="16" t="s">
+    <row r="21" s="10" customFormat="1" spans="1:6">
+      <c r="A21" s="18"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="17"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="16" t="s">
+    <row r="22" s="10" customFormat="1" spans="1:6">
+      <c r="A22" s="18"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="16" t="s">
+    <row r="23" s="10" customFormat="1" spans="1:6">
+      <c r="A23" s="18"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="17"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" s="7" customFormat="1" spans="1:5">
-      <c r="A25" s="17"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" s="10" customFormat="1" spans="1:4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="38" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:5">
+      <c r="A25" s="18"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" s="7" customFormat="1" spans="1:5">
+      <c r="A26" s="18"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="C27" s="47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="17"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="21" t="s">
+      <c r="D27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="11" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="21" t="s">
+      <c r="D28" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="21"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="1:3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" ht="29" customHeight="1" spans="1:5">
-      <c r="A31" s="17"/>
-      <c r="B31" s="42" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="21" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="22"/>
+    </row>
+    <row r="32" ht="29" customHeight="1" spans="1:5">
+      <c r="A32" s="18"/>
+      <c r="B32" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="C32" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="1:3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="21"/>
+      <c r="E32" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" s="6" customFormat="1" ht="27" spans="1:6">
-      <c r="A35" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:3">
+      <c r="A34" s="53"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" s="6" customFormat="1" ht="27" spans="1:6">
+      <c r="A36" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="E36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" spans="1:6">
-      <c r="A36" s="47"/>
-      <c r="C36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="16" t="s">
+    <row r="37" s="6" customFormat="1" spans="1:6">
+      <c r="A37" s="55"/>
+      <c r="C37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="47"/>
-      <c r="C37" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="48"/>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="55"/>
+      <c r="C38" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="1" spans="1:6">
-      <c r="A40" s="49" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="56"/>
+      <c r="C39" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="6" t="s">
+    </row>
+    <row r="41" s="6" customFormat="1" spans="1:6">
+      <c r="A41" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="D41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="50"/>
-    </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="51"/>
+      <c r="A42" s="58"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A2:A32"/>
-    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="A36:A39"/>
     <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C8"/>
   </mergeCells>
@@ -2383,13 +2419,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:5">
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -2397,101 +2433,101 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="27" spans="3:4">
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1" spans="2:4">
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2522,18 +2558,18 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2547,28 +2583,28 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/doc/自动化平台开发计划.xlsx
+++ b/doc/自动化平台开发计划.xlsx
@@ -7,16 +7,17 @@
     <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="auto" sheetId="1" r:id="rId1"/>
-    <sheet name="功能设计" sheetId="3" r:id="rId2"/>
-    <sheet name="docker" sheetId="2" r:id="rId3"/>
+    <sheet name="auto_new" sheetId="4" r:id="rId1"/>
+    <sheet name="auto" sheetId="1" r:id="rId2"/>
+    <sheet name="功能设计" sheetId="3" r:id="rId3"/>
+    <sheet name="docker" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="131">
   <si>
     <t>功能模块</t>
   </si>
@@ -30,12 +31,153 @@
     <t>状态</t>
   </si>
   <si>
+    <t>备用方案</t>
+  </si>
+  <si>
+    <t>分布式自动化测试平台</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>后台</t>
+  </si>
+  <si>
+    <t>登录控制session+cookie;token</t>
+  </si>
+  <si>
+    <t>session会话，token权限颁发</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>用户权限控制</t>
+  </si>
+  <si>
+    <t>任务管理</t>
+  </si>
+  <si>
+    <t>创建，编辑</t>
+  </si>
+  <si>
+    <t>任务轮训检查</t>
+  </si>
+  <si>
+    <t>检查未分发任务，查看worker空闲状态进行分发</t>
+  </si>
+  <si>
+    <t>worker管理</t>
+  </si>
+  <si>
+    <t>健康状态+繁忙状态</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>邮件功能</t>
+  </si>
+  <si>
+    <t>堡垒机功能</t>
+  </si>
+  <si>
+    <t>库已完成，待对接</t>
+  </si>
+  <si>
+    <t>短信功能</t>
+  </si>
+  <si>
+    <t>前台</t>
+  </si>
+  <si>
+    <t>任务创建页</t>
+  </si>
+  <si>
+    <t>任务编辑页（添加case，等）</t>
+  </si>
+  <si>
+    <t>任务执行状态页</t>
+  </si>
+  <si>
+    <t>case相关页面</t>
+  </si>
+  <si>
+    <t>执行数据统计相关页面</t>
+  </si>
+  <si>
+    <t>log查看+分析页面</t>
+  </si>
+  <si>
+    <t>worker管理相关页面</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>管理器</t>
+  </si>
+  <si>
+    <t>任务接收</t>
+  </si>
+  <si>
+    <t>接收redis任务消息，实例化任务管理器</t>
+  </si>
+  <si>
+    <t>worker_task_consumer.py</t>
+  </si>
+  <si>
+    <t>创建任务工作目录及相关变量，下载case脚本</t>
+  </si>
+  <si>
+    <t>taskManager.py</t>
+  </si>
+  <si>
+    <t>slave 心跳</t>
+  </si>
+  <si>
+    <t>slave上报系统cpu,mem信息</t>
+  </si>
+  <si>
+    <t>执行器（robotframework）</t>
+  </si>
+  <si>
+    <t>根据参数组装任务执行命令</t>
+  </si>
+  <si>
+    <t>run.py</t>
+  </si>
+  <si>
+    <t>执行任务</t>
+  </si>
+  <si>
+    <t>robotfrmework</t>
+  </si>
+  <si>
+    <t>监听事件，上传执行结果到数据库</t>
+  </si>
+  <si>
+    <t>listener.py</t>
+  </si>
+  <si>
+    <t>上传log文件到日志服务器</t>
+  </si>
+  <si>
+    <t>关键字驱动+数据驱动（demo）</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>自定义jenkins任务服务</t>
+  </si>
+  <si>
+    <t>flask</t>
+  </si>
+  <si>
     <t>自动化平台</t>
   </si>
   <si>
-    <t>后台</t>
-  </si>
-  <si>
     <t>接口功能+压力测试</t>
   </si>
   <si>
@@ -45,9 +187,6 @@
     <t>图灵等接口平台示例</t>
   </si>
   <si>
-    <t>完成</t>
-  </si>
-  <si>
     <t>Excel读取接口用例</t>
   </si>
   <si>
@@ -69,19 +208,17 @@
     <t>结果存储</t>
   </si>
   <si>
-    <t>登录控制session+cookie;token</t>
-  </si>
-  <si>
-    <t>session会话，token权限颁发</t>
-  </si>
-  <si>
-    <t>用户权限控制</t>
-  </si>
-  <si>
     <t>分布式</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>remote库/web服务/</t>
     </r>
     <r>
@@ -123,36 +260,12 @@
     <t>rest_framework：序列化，认证</t>
   </si>
   <si>
-    <t>任务管理</t>
-  </si>
-  <si>
     <t>创建+分发+producer</t>
   </si>
   <si>
     <t>slave管理</t>
   </si>
   <si>
-    <t>健康状态+繁忙状态</t>
-  </si>
-  <si>
-    <t>定时任务</t>
-  </si>
-  <si>
-    <t>邮件功能</t>
-  </si>
-  <si>
-    <t>短信功能</t>
-  </si>
-  <si>
-    <t>堡垒机功能</t>
-  </si>
-  <si>
-    <t>库已完成，待对接</t>
-  </si>
-  <si>
-    <t>slave</t>
-  </si>
-  <si>
     <t>uirunner</t>
   </si>
   <si>
@@ -171,9 +284,6 @@
     <t>slave上报系统信息</t>
   </si>
   <si>
-    <t>前台</t>
-  </si>
-  <si>
     <t>登录页面</t>
   </si>
   <si>
@@ -220,15 +330,6 @@
   </si>
   <si>
     <t>并行分布式执行</t>
-  </si>
-  <si>
-    <t>CI/CD</t>
-  </si>
-  <si>
-    <t>自定义jenkins任务服务</t>
-  </si>
-  <si>
-    <t>flask</t>
   </si>
   <si>
     <t>功能</t>
@@ -349,12 +450,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +467,25 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -531,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +690,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -755,7 +881,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1163,6 +1289,159 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.5"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.5"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1271,10 +1550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,137 +1562,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1438,151 +1717,334 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1942,23 +2404,497 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="12.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="38" style="61" customWidth="1"/>
+    <col min="5" max="5" width="43.125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="61" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.875" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="54" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A1" s="62"/>
+      <c r="D1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="55" customFormat="1" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:7">
+      <c r="A3" s="17"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="1" spans="1:6">
+      <c r="A4" s="17"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" s="11" customFormat="1" spans="1:6">
+      <c r="A5" s="17"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="61"/>
+    </row>
+    <row r="6" s="11" customFormat="1" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="61"/>
+    </row>
+    <row r="7" s="11" customFormat="1" spans="1:6">
+      <c r="A7" s="17"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+    </row>
+    <row r="8" s="11" customFormat="1" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+    </row>
+    <row r="9" s="56" customFormat="1" spans="1:7">
+      <c r="A9" s="17"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="76"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+    </row>
+    <row r="11" s="57" customFormat="1" spans="1:7">
+      <c r="A11" s="17"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+    </row>
+    <row r="12" s="57" customFormat="1" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+    </row>
+    <row r="13" s="57" customFormat="1" spans="1:7">
+      <c r="A13" s="17"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+    </row>
+    <row r="14" s="57" customFormat="1" spans="1:7">
+      <c r="A14" s="17"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
+    </row>
+    <row r="15" s="57" customFormat="1" spans="1:7">
+      <c r="A15" s="17"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+    </row>
+    <row r="16" s="57" customFormat="1" spans="1:7">
+      <c r="A16" s="17"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+    </row>
+    <row r="17" s="57" customFormat="1" spans="1:7">
+      <c r="A17" s="17"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
+    </row>
+    <row r="18" s="57" customFormat="1" spans="1:7">
+      <c r="A18" s="17"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+    </row>
+    <row r="19" s="58" customFormat="1" ht="32" customHeight="1" spans="1:7">
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="89"/>
+    </row>
+    <row r="20" s="59" customFormat="1" spans="1:7">
+      <c r="A20" s="90"/>
+      <c r="B20" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" s="59" customFormat="1" spans="1:7">
+      <c r="A21" s="90"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" s="60" customFormat="1" spans="1:7">
+      <c r="A22" s="90"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="100"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:6">
+      <c r="A23" s="17"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="105"/>
+      <c r="F23" s="77"/>
+    </row>
+    <row r="24" s="7" customFormat="1" spans="1:6">
+      <c r="A24" s="17"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="77"/>
+    </row>
+    <row r="25" s="9" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+    </row>
+    <row r="26" s="10" customFormat="1" spans="1:7">
+      <c r="A26" s="17"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:7">
+      <c r="A27" s="17"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:7">
+      <c r="A28" s="17"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" s="11" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A29" s="17"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+    </row>
+    <row r="30" s="10" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A30" s="113"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" s="11" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A31" s="44"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" s="11" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A32" s="46"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" s="11" customFormat="1" spans="2:6">
+      <c r="B33" s="117"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+    </row>
+    <row r="34" s="11" customFormat="1" spans="4:6">
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+    </row>
+    <row r="35" s="6" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A35" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="118"/>
+      <c r="D35" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="72"/>
+      <c r="G35" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" s="11" customFormat="1" spans="1:6">
+      <c r="A36" s="52"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+    </row>
+    <row r="37" s="11" customFormat="1" spans="1:6">
+      <c r="A37" s="53"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="16.125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="38" style="12" customWidth="1"/>
-    <col min="4" max="4" width="43.125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="16.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="38" style="11" customWidth="1"/>
+    <col min="4" max="4" width="43.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="3:6">
@@ -1976,410 +2912,410 @@
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:6">
-      <c r="A2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="A2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:6">
+      <c r="A3" s="17"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:6">
+      <c r="A4" s="17"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:6">
+      <c r="A5" s="17"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:6">
+      <c r="A7" s="17"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:6">
+      <c r="A9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:6">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" spans="1:6">
-      <c r="A4" s="18"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20" t="s">
+    </row>
+    <row r="10" s="6" customFormat="1" spans="1:6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" spans="1:6">
-      <c r="A5" s="18"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="19" t="s">
+      <c r="F10" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:5">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" spans="1:6">
+      <c r="A12" s="17"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="17"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="17"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" spans="1:6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" spans="1:6">
-      <c r="A7" s="18"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="18"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="21" t="s">
+      <c r="D14" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="17"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" spans="1:6">
-      <c r="A10" s="18"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="21" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:5">
-      <c r="A11" s="18"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="22" t="s">
+    </row>
+    <row r="18" s="7" customFormat="1" spans="1:3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1" ht="32" customHeight="1" spans="1:6">
+      <c r="A19" s="17"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" spans="1:6">
-      <c r="A12" s="18"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="21" t="s">
+    </row>
+    <row r="20" s="5" customFormat="1" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:6">
+      <c r="A21" s="17"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:6">
+      <c r="A22" s="17"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:6">
+      <c r="A23" s="17"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="17"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:5">
+      <c r="A25" s="17"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" s="7" customFormat="1" spans="1:5">
+      <c r="A26" s="17"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" s="9" customFormat="1" spans="1:4">
+      <c r="A27" s="17"/>
+      <c r="B27" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" s="7" customFormat="1" spans="1:3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" s="8" customFormat="1" ht="32" customHeight="1" spans="1:6">
-      <c r="A19" s="18"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" s="9" customFormat="1" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" s="10" customFormat="1" spans="1:6">
-      <c r="A22" s="18"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" s="10" customFormat="1" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="18"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:5">
-      <c r="A25" s="18"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" s="7" customFormat="1" spans="1:5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>45</v>
+      <c r="C27" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>47</v>
+      <c r="A28" s="17"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="22" t="s">
-        <v>48</v>
+      <c r="A29" s="17"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="22"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" ht="29" customHeight="1" spans="1:5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="50" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="21"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:3">
+      <c r="A34" s="46"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" s="6" customFormat="1" ht="27" spans="1:6">
+      <c r="A36" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" s="6" customFormat="1" ht="23" customHeight="1" spans="1:6">
+      <c r="A37" s="48"/>
+      <c r="C37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" s="10" customFormat="1" spans="1:3">
+      <c r="A38" s="49"/>
+      <c r="C38" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="50"/>
+      <c r="C39" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" s="6" customFormat="1" spans="1:6">
+      <c r="A41" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="1:3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="22"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" spans="1:3">
-      <c r="A34" s="53"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="22"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" s="6" customFormat="1" ht="27" spans="1:6">
-      <c r="A36" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" s="6" customFormat="1" spans="1:6">
-      <c r="A37" s="55"/>
-      <c r="C37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="55"/>
-      <c r="C38" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="56"/>
-      <c r="C39" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" s="6" customFormat="1" spans="1:6">
-      <c r="A41" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>9</v>
+      <c r="F41" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="58"/>
+      <c r="A42" s="52"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="59"/>
+      <c r="A43" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2398,7 +3334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E13"/>
@@ -2419,13 +3355,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="2:5">
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -2433,101 +3369,101 @@
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="27" spans="3:4">
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1" spans="2:4">
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +3476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D9"/>
@@ -2558,18 +3494,18 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2583,28 +3519,28 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/doc/自动化平台开发计划.xlsx
+++ b/doc/自动化平台开发计划.xlsx
@@ -2409,7 +2409,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
